--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23318"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D9C326-80AE-4D68-B968-461473C402B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4BE73-B313-48ED-88E0-2161EEFB61B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4590" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>104942710030385</v>
+        <v>104942912012343</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4BE73-B313-48ED-88E0-2161EEFB61B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2286E424-5F6E-4CDD-A6B1-35F8DEBEFAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4590" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>104942912012343</v>
+        <v>104953555189817</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2286E424-5F6E-4CDD-A6B1-35F8DEBEFAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4611461F-D44B-4508-9393-C1A4FC94972C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
-        <v>104942658519134</v>
+        <v>104954558677040</v>
       </c>
       <c r="F8" s="1">
         <v>10002</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4611461F-D44B-4508-9393-C1A4FC94972C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F322B792-CA8E-4955-8985-A57047C6F983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4">
-        <v>104935135445043</v>
+        <v>104959540396084</v>
       </c>
       <c r="F6" s="1">
         <v>10001</v>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>104953555189817</v>
+        <v>104959519752258</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
-        <v>104954558677040</v>
+        <v>104959441174867</v>
       </c>
       <c r="F8" s="1">
         <v>10002</v>

--- a/Excel/Server_SkillCanvasConfig.xlsx
+++ b/Excel/Server_SkillCanvasConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F322B792-CA8E-4955-8985-A57047C6F983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54310550-9397-4CFD-A7B7-D10FE8100965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4">
-        <v>104959540396084</v>
+        <v>104964891541547</v>
       </c>
       <c r="F6" s="1">
         <v>10001</v>
